--- a/Data Penelitian/13. Pengujian keTigabelas/2. Nilai N Path Loss/AP1/Visual.xlsx
+++ b/Data Penelitian/13. Pengujian keTigabelas/2. Nilai N Path Loss/AP1/Visual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\12. Pengujian keDuabelas\2. Nilai N Path Loss\AP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\13. Pengujian keTigabelas\2. Nilai N Path Loss\AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50716A12-437A-4F89-B8B4-0DEC291AD6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D89FE-4591-4A47-8CD6-CCF2D4D2B158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,8 +56,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,12 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,11 +384,12 @@
   <dimension ref="C3:N303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -414,21 +416,21 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>-47</v>
+        <v>-30</v>
       </c>
       <c r="D4" s="1">
-        <v>5.9794705707972504</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E4" s="3">
-        <v>1.65222251418163</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F4">
         <f>ABS(2-E4)</f>
-        <v>0.34777748581836998</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G4">
         <f>F4^2</f>
-        <v>0.12094917964214653</v>
+        <v>0.11987441528591611</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -451,1458 +453,1458 @@
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5">
-        <v>-43</v>
+        <v>-33</v>
       </c>
       <c r="D5" s="1">
-        <v>4.6506993328422999</v>
+        <v>1.3287712379549399</v>
       </c>
       <c r="E5" s="3">
-        <v>1.43140734002498</v>
+        <v>918.25428356562804</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F68" si="0">ABS(2-E5)</f>
-        <v>0.56859265997501995</v>
+        <v>916.25428356562804</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G68" si="1">F5^2</f>
-        <v>0.32329761297746867</v>
+        <v>839521.91215236229</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
         <f>AVERAGE(C4:C103)</f>
-        <v>-38.67</v>
-      </c>
-      <c r="K5" s="4">
+        <v>-29.82</v>
+      </c>
+      <c r="K5" s="5">
         <f>AVERAGE(D4:D103)</f>
-        <v>3.2123044677560735</v>
+        <v>0.27239810378076318</v>
       </c>
       <c r="L5">
         <f>AVERAGE(G4:G103)</f>
-        <v>0.49342675682714526</v>
+        <v>12862.905336853608</v>
       </c>
       <c r="M5">
         <f>SQRT(SUMSQ(F4:F103)/COUNTA(F4:F103))</f>
-        <v>0.70244341895069762</v>
+        <v>113.4147492033272</v>
       </c>
       <c r="N5">
         <f>AVERAGE(F4:F103)</f>
-        <v>0.58202757239639347</v>
+        <v>31.51799221451941</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="D6" s="1">
-        <v>5.3150849518197703</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E6" s="3">
-        <v>1.43140734002498</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>12.283551597244079</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
         <f>AVERAGE(C104:C203)</f>
-        <v>-43.84</v>
-      </c>
-      <c r="K6" s="2">
+        <v>-41.97</v>
+      </c>
+      <c r="K6" s="4">
         <f>AVERAGE(D104:D203)</f>
-        <v>3.1103204590454432</v>
+        <v>2.7183865467533277</v>
       </c>
       <c r="L6">
         <f>AVERAGE(G104:G203)</f>
-        <v>1.8110026266932115</v>
+        <v>1.6907609972156428</v>
       </c>
       <c r="M6">
         <f>SQRT(SUMSQ(F104:F203)/COUNTA(F104:F203))</f>
-        <v>1.3457349763951338</v>
+        <v>1.3002926582949097</v>
       </c>
       <c r="N6">
         <f>AVERAGE(F104:F203)</f>
-        <v>1.3209760996234585</v>
+        <v>0.99621451783212933</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7">
-        <v>-43</v>
+        <v>-34</v>
       </c>
       <c r="D7" s="1">
-        <v>4.6506993328422999</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E7" s="3">
-        <v>1.43140734002498</v>
+        <v>166.81005372000499</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>164.81005372000499</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>27162.353807190928</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
         <f>AVERAGE(C204:C303)</f>
-        <v>-42.63</v>
+        <v>-41.72</v>
       </c>
       <c r="K7" s="2">
         <f>AVERAGE(D204:D303)</f>
-        <v>2.2638939966657317</v>
+        <v>2.1127462683483573</v>
       </c>
       <c r="L7">
         <f>AVERAGE(G204:G303)</f>
-        <v>6.5288961969188746</v>
+        <v>2.0722280644617324</v>
       </c>
       <c r="M7">
         <f>SQRT(SUMSQ(F204:F303)/COUNTA(F204:F303))</f>
-        <v>2.5551704829460742</v>
+        <v>1.4395235546741612</v>
       </c>
       <c r="N7">
         <f>AVERAGE(F204:F303)</f>
-        <v>1.9316748292343164</v>
+        <v>0.93192072382603541</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="D8" s="1">
-        <v>1.9931568569324101</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>1.3323262723554199</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9">
-        <v>-39</v>
+        <v>-34</v>
       </c>
       <c r="D9" s="1">
-        <v>3.32192809488736</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E9" s="3">
-        <v>1.15426438581263</v>
+        <v>166.81005372000499</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.84573561418736998</v>
+        <v>164.81005372000499</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.71526872910488792</v>
+        <v>27162.353807190928</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10">
-        <v>-34</v>
+        <v>-29</v>
       </c>
       <c r="D10" s="1">
-        <v>1.66096404744368</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1.43140734002498</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11">
-        <v>-43</v>
+        <v>-36</v>
       </c>
       <c r="D11" s="1">
-        <v>4.6506993328422999</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E11" s="3">
-        <v>1.3323262723554199</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D12" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E12" s="3">
-        <v>1.3323262723554199</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>-39</v>
+        <v>-35</v>
       </c>
       <c r="D13" s="1">
-        <v>3.32192809488736</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E13" s="3">
-        <v>1.43140734002498</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>28.302710828663901</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="D14" s="1">
-        <v>3.32192809488736</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E14" s="3">
-        <v>1.3323262723554199</v>
+        <v>7.7426368268112694E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>1.9225736317318873</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>3.6962893694307386</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>-41</v>
+        <v>-30</v>
       </c>
       <c r="D15" s="1">
-        <v>3.9863137138648299</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E15" s="3">
-        <v>1.65222251418163</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16">
-        <v>-34</v>
+        <v>-29</v>
       </c>
       <c r="D16" s="1">
-        <v>1.66096404744368</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>1.9071016055576699</v>
+        <v>7.7426368268112694E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>9.2898394442330057E-2</v>
+        <v>1.9225736317318873</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>8.6301116899627408E-3</v>
+        <v>3.6962893694307386</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>-43</v>
+        <v>-34</v>
       </c>
       <c r="D17" s="1">
-        <v>4.6506993328422999</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E17" s="3">
-        <v>1.5378567664623699</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>28.302710828663901</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>-34</v>
+        <v>-29</v>
       </c>
       <c r="D18" s="1">
-        <v>1.66096404744368</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>2.5408815731357</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0.54088157313569996</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.29255287615774955</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>-42</v>
+        <v>-36</v>
       </c>
       <c r="D19" s="1">
-        <v>4.3185065233535704</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E19" s="3">
-        <v>1.5378567664623699</v>
+        <v>7.7426368268112694E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>1.9225736317318873</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>3.6962893694307386</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>-34</v>
+        <v>-30</v>
       </c>
       <c r="D20" s="1">
-        <v>1.66096404744368</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E20" s="3">
-        <v>3.15095620953434</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1.15095620953434</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>1.3247001962656555</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="D21" s="1">
-        <v>4.3185065233535704</v>
+        <v>1.3287712379549399</v>
       </c>
       <c r="E21" s="3">
-        <v>1.5378567664623699</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22">
-        <v>-37</v>
+        <v>-30</v>
       </c>
       <c r="D22" s="1">
-        <v>2.6575424759098798</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E22" s="3">
-        <v>2.9328491084381301</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.93284910843813007</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.87020745911381414</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="D23" s="1">
-        <v>4.3185065233535704</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>1.65222251418163</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24">
-        <v>-37</v>
+        <v>-29</v>
       </c>
       <c r="D24" s="1">
-        <v>2.6575424759098798</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>2.7298392363686799</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0.72983923636867987</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0.53266531094321778</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D25" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E25" s="3">
-        <v>1.65222251418163</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D26" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E26" s="3">
-        <v>2.9328491084381301</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0.93284910843813007</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0.87020745911381414</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D27" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E27" s="3">
-        <v>1.7750932960085</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0.22490670399150003</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>5.0583025500320219E-2</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D28" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E28" s="3">
-        <v>1.7750932960085</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0.22490670399150003</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>5.0583025500320219E-2</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="D29" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E29" s="3">
-        <v>1.43140734002498</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30">
-        <v>-34</v>
+        <v>-30</v>
       </c>
       <c r="D30" s="1">
-        <v>1.66096404744368</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E30" s="3">
-        <v>2.9328491084381301</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0.93284910843813007</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>0.87020745911381414</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="D31" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E31" s="3">
-        <v>1.24010353054185</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.75989646945815004</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0.57744264429496117</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="D32" s="1">
-        <v>1.66096404744368</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E32" s="3">
-        <v>3.6370365339206701</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>1.6370365339206701</v>
+        <v>28.302710828663901</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>2.6798886133910012</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="D33" s="1">
-        <v>4.3185065233535704</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>1.3323262723554199</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="D34" s="1">
-        <v>1.66096404744368</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E34" s="3">
-        <v>4.19810174100407</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>2.19810174100407</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>4.8316512638051234</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D35" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E35" s="3">
-        <v>1.43140734002498</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="D36" s="1">
-        <v>1.66096404744368</v>
+        <v>0.66438561897747195</v>
       </c>
       <c r="E36" s="3">
-        <v>2.9328491084381301</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0.93284910843813007</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>0.87020745911381414</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D37" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E37" s="3">
-        <v>1.43140734002498</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="D38" s="1">
-        <v>2.3253496664211499</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E38" s="3">
-        <v>1.65222251418163</v>
+        <v>0.18165997883753199</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>1.8183400211624681</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>3.3063604325611249</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39">
-        <v>-43</v>
+        <v>-30</v>
       </c>
       <c r="D39" s="1">
-        <v>4.6506993328422999</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E39" s="3">
-        <v>1.24010353054185</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0.75989646945815004</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>0.57744264429496117</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D40" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E40" s="3">
-        <v>1.9071016055576699</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>9.2898394442330057E-2</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>8.6301116899627408E-3</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41">
-        <v>-43</v>
+        <v>-29</v>
       </c>
       <c r="D41" s="1">
-        <v>4.6506993328422999</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>1.3323262723554199</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42">
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="D42" s="1">
-        <v>1.3287712379549399</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E42" s="3">
-        <v>1.65222251418163</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D43" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E43" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44">
-        <v>-36</v>
+        <v>-27</v>
       </c>
       <c r="D44" s="1">
-        <v>2.3253496664211499</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E44" s="3">
-        <v>2.0489269730773798</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>4.8926973077379809E-2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>2.3938486945146486E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D45" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E45" s="3">
-        <v>1.24010353054185</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0.75989646945815004</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>0.57744264429496117</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D46" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E46" s="3">
-        <v>2.5408815731357</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>0.54088157313569996</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>0.29255287615774955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="D47" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E47" s="3">
-        <v>1.5378567664623699</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="D48" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.99657842846620803</v>
       </c>
       <c r="E48" s="3">
-        <v>2.9328491084381301</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>0.93284910843813007</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>0.87020745911381414</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49">
-        <v>-43</v>
+        <v>-27</v>
       </c>
       <c r="D49" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E49" s="3">
-        <v>1.7750932960085</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>0.22490670399150003</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>5.0583025500320219E-2</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D50" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E50" s="3">
-        <v>2.2012994634213201</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>0.2012994634213201</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>4.0521473973711392E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51">
-        <v>-42</v>
+        <v>-27</v>
       </c>
       <c r="D51" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E51" s="3">
-        <v>1.3323262723554199</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52">
-        <v>-34</v>
+        <v>-28</v>
       </c>
       <c r="D52" s="1">
-        <v>1.66096404744368</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E52" s="3">
-        <v>1.9071016055576699</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>9.2898394442330057E-2</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>8.6301116899627408E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53">
-        <v>-43</v>
+        <v>-25</v>
       </c>
       <c r="D53" s="1">
-        <v>4.6506993328422999</v>
+        <v>-1.3287712379549399</v>
       </c>
       <c r="E53" s="3">
-        <v>1.5378567664623699</v>
+        <v>391.37456019803801</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>389.37456019803801</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>151612.54812941552</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54">
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="D54" s="1">
-        <v>2.6575424759098798</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E54" s="3">
-        <v>1.7750932960085</v>
+        <v>391.37456019803801</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>0.22490670399150003</v>
+        <v>389.37456019803801</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>5.0583025500320219E-2</v>
+        <v>151612.54812941552</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55">
-        <v>-41</v>
+        <v>-29</v>
       </c>
       <c r="D55" s="1">
-        <v>3.9863137138648299</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>1.43140734002498</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="D56" s="1">
-        <v>1.66096404744368</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E56" s="3">
-        <v>1.9071016055576699</v>
+        <v>166.81005372000499</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>9.2898394442330057E-2</v>
+        <v>164.81005372000499</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>8.6301116899627408E-3</v>
+        <v>27162.353807190928</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57">
-        <v>-42</v>
+        <v>-27</v>
       </c>
       <c r="D57" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E57" s="3">
-        <v>1.43140734002498</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D58" s="1">
-        <v>1.9931568569324101</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E58" s="3">
-        <v>2.36500343415412</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>0.36500343415411995</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>0.13322750694430099</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59">
-        <v>-41</v>
+        <v>-28</v>
       </c>
       <c r="D59" s="1">
-        <v>3.9863137138648299</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E59" s="3">
-        <v>1.5378567664623699</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>0.46214323353763009</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>0.21357636830461652</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60">
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="D60" s="1">
-        <v>2.6575424759098798</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E60" s="3">
-        <v>2.5408815731357</v>
+        <v>166.81005372000499</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>0.54088157313569996</v>
+        <v>164.81005372000499</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>0.29255287615774955</v>
+        <v>27162.353807190928</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="D61" s="1">
-        <v>4.3185065233535704</v>
+        <v>4.6506993328422999</v>
       </c>
       <c r="E61" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="D62" s="1">
-        <v>1.66096404744368</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E62" s="3">
-        <v>2.2012994634213201</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>0.2012994634213201</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>4.0521473973711392E-2</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="D63" s="1">
-        <v>1.66096404744368</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E63" s="3">
-        <v>1.43140734002498</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>0.56859265997501995</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>0.32329761297746867</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="D64" s="1">
-        <v>1.66096404744368</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E64" s="3">
-        <v>1.9071016055576699</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>9.2898394442330057E-2</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>8.6301116899627408E-3</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="D65" s="1">
-        <v>1.66096404744368</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E65" s="3">
-        <v>1.3323262723554199</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D66" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E66" s="3">
-        <v>1.65222251418163</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67">
-        <v>-43</v>
+        <v>-27</v>
       </c>
       <c r="D67" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E67" s="3">
-        <v>1.3323262723554199</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>0.66767372764458011</v>
+        <v>28.302710828663901</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>0.44578820658680895</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68">
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="D68" s="1">
-        <v>1.9931568569324101</v>
+        <v>1.3287712379549399</v>
       </c>
       <c r="E68" s="3">
-        <v>1.65222251418163</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F68">
         <f t="shared" si="0"/>
-        <v>0.34777748581836998</v>
+        <v>28.302710828663901</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>0.12094917964214653</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="D69" s="1">
-        <v>4.3185065233535704</v>
+        <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>1.43140734002498</v>
+        <v>30.302710828663901</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F132" si="2">ABS(2-E69)</f>
-        <v>0.56859265997501995</v>
+        <f t="shared" ref="F69:F103" si="2">ABS(2-E69)</f>
+        <v>28.302710828663901</v>
       </c>
       <c r="G69">
         <f t="shared" ref="G69:G132" si="3">F69^2</f>
-        <v>0.32329761297746867</v>
+        <v>801.04344025096884</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D70" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E70" s="3">
-        <v>1.7750932960085</v>
+        <v>71.097094323124296</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>0.22490670399150003</v>
+        <v>69.097094323124296</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>5.0583025500320219E-2</v>
+        <v>4774.4084438987356</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D71" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E71" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="D72" s="1">
-        <v>1.66096404744368</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E72" s="3">
-        <v>2.0489269730773798</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F72">
         <f t="shared" si="2"/>
-        <v>4.8926973077379809E-2</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>2.3938486945146486E-3</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D73" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E73" s="3">
-        <v>1.5378567664623699</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F73">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74">
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="D74" s="1">
-        <v>2.9897352853986199</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E74" s="3">
-        <v>3.90751192002632</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F74">
         <f t="shared" si="2"/>
-        <v>1.90751192002632</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>3.6386017250424976</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75">
-        <v>-43</v>
+        <v>-26</v>
       </c>
       <c r="D75" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.99657842846620803</v>
       </c>
       <c r="E75" s="3">
-        <v>1.43140734002498</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76">
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="D76" s="1">
-        <v>2.6575424759098798</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E76" s="3">
-        <v>2.9328491084381301</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F76">
         <f t="shared" si="2"/>
-        <v>0.93284910843813007</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>0.87020745911381414</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D77" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E77" s="3">
-        <v>1.7750932960085</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F77">
         <f t="shared" si="2"/>
-        <v>0.22490670399150003</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>5.0583025500320219E-2</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
@@ -1913,1383 +1915,1383 @@
         <v>1.66096404744368</v>
       </c>
       <c r="E78" s="3">
-        <v>2.2012994634213201</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F78">
         <f t="shared" si="2"/>
-        <v>0.2012994634213201</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
-        <v>4.0521473973711392E-2</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79">
-        <v>-43</v>
+        <v>-29</v>
       </c>
       <c r="D79" s="1">
-        <v>4.6506993328422999</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3">
-        <v>1.7750932960085</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <f t="shared" si="2"/>
-        <v>0.22490670399150003</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>5.0583025500320219E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80">
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="D80" s="1">
-        <v>1.9931568569324101</v>
+        <v>1.3287712379549399</v>
       </c>
       <c r="E80" s="3">
-        <v>3.90751192002632</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <f t="shared" si="2"/>
-        <v>1.90751192002632</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>3.6386017250424976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81">
-        <v>-42</v>
+        <v>-27</v>
       </c>
       <c r="D81" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E81" s="3">
-        <v>1.5378567664623699</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82">
-        <v>-37</v>
+        <v>-29</v>
       </c>
       <c r="D82" s="1">
-        <v>2.6575424759098798</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>3.90751192002632</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F82">
         <f t="shared" si="2"/>
-        <v>1.90751192002632</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
-        <v>3.6386017250424976</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D83" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E83" s="3">
-        <v>1.5378567664623699</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="D84" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E84" s="3">
-        <v>2.5408815731357</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F84">
         <f t="shared" si="2"/>
-        <v>0.54088157313569996</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G84">
         <f t="shared" si="3"/>
-        <v>0.29255287615774955</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D85" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E85" s="3">
-        <v>1.5378567664623699</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="D86" s="1">
-        <v>1.9931568569324101</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>2.5408815731357</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F86">
         <f t="shared" si="2"/>
-        <v>0.54088157313569996</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G86">
         <f t="shared" si="3"/>
-        <v>0.29255287615774955</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="D87" s="1">
-        <v>4.3185065233535704</v>
+        <v>0</v>
       </c>
       <c r="E87" s="3">
-        <v>1.5378567664623699</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F87">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88">
-        <v>-34</v>
+        <v>-29</v>
       </c>
       <c r="D88" s="1">
-        <v>1.66096404744368</v>
+        <v>0</v>
       </c>
       <c r="E88" s="3">
-        <v>1.7750932960085</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <f t="shared" si="2"/>
-        <v>0.22490670399150003</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
-        <v>5.0583025500320219E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="D89" s="1">
-        <v>4.3185065233535704</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E89" s="3">
-        <v>1.3323262723554199</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F89">
         <f t="shared" si="2"/>
-        <v>0.66767372764458011</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G89">
         <f t="shared" si="3"/>
-        <v>0.44578820658680895</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="D90" s="1">
-        <v>1.9931568569324101</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E90" s="3">
-        <v>3.6370365339206701</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F90">
         <f t="shared" si="2"/>
-        <v>1.6370365339206701</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G90">
         <f t="shared" si="3"/>
-        <v>2.6798886133910012</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="D91" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E91" s="3">
-        <v>1.3323262723554199</v>
+        <v>12.9154966501488</v>
       </c>
       <c r="F91">
         <f t="shared" si="2"/>
-        <v>0.66767372764458011</v>
+        <v>10.9154966501488</v>
       </c>
       <c r="G91">
         <f t="shared" si="3"/>
-        <v>0.44578820658680895</v>
+        <v>119.14806711940967</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92">
-        <v>-36</v>
+        <v>-29</v>
       </c>
       <c r="D92" s="1">
-        <v>2.3253496664211499</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3">
-        <v>1.43140734002498</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="D93" s="1">
-        <v>4.3185065233535704</v>
+        <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F93">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G93">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94">
-        <v>-33</v>
+        <v>-29</v>
       </c>
       <c r="D94" s="1">
-        <v>1.3287712379549399</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F94">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G94">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="D95" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E95" s="3">
-        <v>1.65222251418163</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>0.34777748581836998</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G95">
         <f t="shared" si="3"/>
-        <v>0.12094917964214653</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="D96" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E96" s="3">
-        <v>1.5378567664623699</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F96">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="D97" s="1">
-        <v>4.3185065233535704</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E97" s="3">
-        <v>1.5378567664623699</v>
+        <v>0.42621588290153201</v>
       </c>
       <c r="F97">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>1.5737841170984681</v>
       </c>
       <c r="G97">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>2.4767964472314046</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98">
-        <v>-34</v>
+        <v>-30</v>
       </c>
       <c r="D98" s="1">
-        <v>1.66096404744368</v>
+        <v>0.33219280948873597</v>
       </c>
       <c r="E98" s="3">
-        <v>1.65222251418163</v>
+        <v>5.5047898078549702</v>
       </c>
       <c r="F98">
         <f t="shared" si="2"/>
-        <v>0.34777748581836998</v>
+        <v>3.5047898078549702</v>
       </c>
       <c r="G98">
         <f t="shared" si="3"/>
-        <v>0.12094917964214653</v>
+        <v>12.283551597244079</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="D99" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E99" s="3">
-        <v>1.5378567664623699</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <f t="shared" si="2"/>
-        <v>0.46214323353763009</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <f t="shared" si="3"/>
-        <v>0.21357636830461652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="D100" s="1">
-        <v>1.9931568569324101</v>
+        <v>0.99657842846620803</v>
       </c>
       <c r="E100" s="3">
-        <v>1.43140734002498</v>
+        <v>2.34622884814226</v>
       </c>
       <c r="F100">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>0.34622884814225996</v>
       </c>
       <c r="G100">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>0.11987441528591611</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101">
-        <v>-41</v>
+        <v>-28</v>
       </c>
       <c r="D101" s="1">
-        <v>3.9863137138648299</v>
+        <v>-0.33219280948873597</v>
       </c>
       <c r="E101" s="3">
-        <v>1.43140734002498</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102">
-        <v>-37</v>
+        <v>-31</v>
       </c>
       <c r="D102" s="1">
-        <v>2.6575424759098798</v>
+        <v>0.66438561897747195</v>
       </c>
       <c r="E102" s="3">
-        <v>1.43140734002498</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103">
-        <v>-43</v>
+        <v>-27</v>
       </c>
       <c r="D103" s="1">
-        <v>4.6506993328422999</v>
+        <v>-0.66438561897747195</v>
       </c>
       <c r="E103" s="3">
-        <v>1.43140734002498</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <f t="shared" si="2"/>
-        <v>0.56859265997501995</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <f t="shared" si="3"/>
-        <v>0.32329761297746867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104">
-        <v>-46</v>
+        <v>-42</v>
       </c>
       <c r="D104" s="1">
-        <v>3.56303556629195</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E104" s="3">
-        <v>1.3446751013464699</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F104">
         <f>ABS(3-E104)</f>
-        <v>1.6553248986535301</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G104">
         <f t="shared" si="3"/>
-        <v>2.7401005201023194</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105">
-        <v>-37</v>
+        <v>-46</v>
       </c>
       <c r="D105" s="1">
-        <v>1.6767226194314999</v>
+        <v>3.56303556629195</v>
       </c>
       <c r="E105" s="3">
-        <v>1.9471036348828401</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F105">
         <f t="shared" ref="F105:F168" si="4">ABS(3-E105)</f>
-        <v>1.0528963651171599</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G105">
         <f t="shared" si="3"/>
-        <v>1.1085907556769277</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106">
-        <v>-47</v>
+        <v>-40</v>
       </c>
       <c r="D106" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E106" s="3">
-        <v>1.3446751013464699</v>
+        <v>4.99493006273135</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
-        <v>1.6553248986535301</v>
+        <v>1.99493006273135</v>
       </c>
       <c r="G106">
         <f t="shared" si="3"/>
-        <v>2.7401005201023194</v>
+        <v>3.979745955189308</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="D107" s="1">
-        <v>1.88631294686044</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E107" s="3">
-        <v>2.2578638444406698</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108">
-        <v>-45</v>
+        <v>-47</v>
       </c>
       <c r="D108" s="1">
-        <v>3.35344523886301</v>
+        <v>3.7726258937208899</v>
       </c>
       <c r="E108" s="3">
-        <v>1.2487141197715499</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
-        <v>1.7512858802284501</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G108">
         <f t="shared" si="3"/>
-        <v>3.0670022342875374</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="D109" s="1">
-        <v>2.0959032742893799</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E109" s="3">
-        <v>2.2578638444406698</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G109">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="D110" s="1">
-        <v>3.1438549114340701</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E110" s="3">
-        <v>1.3446751013464699</v>
+        <v>5.9164176436674696</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
-        <v>1.6553248986535301</v>
+        <v>2.9164176436674696</v>
       </c>
       <c r="G110">
         <f t="shared" si="3"/>
-        <v>2.7401005201023194</v>
+        <v>8.5054918722949164</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111">
-        <v>-36</v>
+        <v>-38</v>
       </c>
       <c r="D111" s="1">
-        <v>1.46713229200256</v>
+        <v>1.88631294686044</v>
       </c>
       <c r="E111" s="3">
-        <v>1.80815112818115</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
-        <v>1.19184887181885</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G111">
         <f t="shared" si="3"/>
-        <v>1.4205037332558657</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112">
-        <v>-47</v>
+        <v>-42</v>
       </c>
       <c r="D112" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E112" s="3">
-        <v>1.4480104769792601</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G112">
         <f t="shared" si="3"/>
-        <v>2.4086714795661437</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="D113" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.1438549114340701</v>
       </c>
       <c r="E113" s="3">
-        <v>1.67911478555659</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G113">
         <f t="shared" si="3"/>
-        <v>1.7447377497352132</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114">
-        <v>-41</v>
+        <v>-45</v>
       </c>
       <c r="D114" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.35344523886301</v>
       </c>
       <c r="E114" s="3">
-        <v>1.9471036348828401</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G114">
         <f t="shared" si="3"/>
-        <v>1.1085907556769277</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="D115" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E115" s="3">
-        <v>2.2578638444406698</v>
+        <v>4.99493006273135</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>1.99493006273135</v>
       </c>
       <c r="G115">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>3.979745955189308</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116">
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="D116" s="1">
-        <v>3.56303556629195</v>
+        <v>3.1438549114340701</v>
       </c>
       <c r="E116" s="3">
-        <v>2.2578638444406698</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G116">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117">
-        <v>-41</v>
+        <v>-45</v>
       </c>
       <c r="D117" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.35344523886301</v>
       </c>
       <c r="E117" s="3">
-        <v>2.0967343414417101</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
-        <v>0.90326565855828989</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G117">
         <f t="shared" si="3"/>
-        <v>0.81588884993074118</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D118" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E118" s="3">
-        <v>1.55928695291685</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G118">
         <f t="shared" si="3"/>
-        <v>2.0756540840356146</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="D119" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E119" s="3">
-        <v>1.9471036348828401</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G119">
         <f t="shared" si="3"/>
-        <v>1.1085907556769277</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120">
-        <v>-48</v>
+        <v>-42</v>
       </c>
       <c r="D120" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E120" s="3">
-        <v>1.3446751013464699</v>
+        <v>1.8086433719541399</v>
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
-        <v>1.6553248986535301</v>
+        <v>1.1913566280458601</v>
       </c>
       <c r="G120">
         <f t="shared" si="3"/>
-        <v>2.7401005201023194</v>
+        <v>1.4193306151888019</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="D121" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E121" s="3">
-        <v>1.9471036348828401</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F121">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G121">
         <f t="shared" si="3"/>
-        <v>1.1085907556769277</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122">
-        <v>-49</v>
+        <v>-41</v>
       </c>
       <c r="D122" s="1">
-        <v>4.1918065485787697</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E122" s="3">
-        <v>1.67911478555659</v>
+        <v>1.8086433719541399</v>
       </c>
       <c r="F122">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>1.1913566280458601</v>
       </c>
       <c r="G122">
         <f t="shared" si="3"/>
-        <v>1.7447377497352132</v>
+        <v>1.4193306151888019</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D123" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E123" s="3">
-        <v>1.80815112818115</v>
+        <v>2.33156248472002</v>
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
-        <v>1.19184887181885</v>
+        <v>0.66843751527997997</v>
       </c>
       <c r="G123">
         <f t="shared" si="3"/>
-        <v>1.4205037332558657</v>
+        <v>0.44680871183367343</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124">
-        <v>-47</v>
+        <v>-37</v>
       </c>
       <c r="D124" s="1">
-        <v>3.7726258937208899</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E124" s="3">
-        <v>1.67911478555659</v>
+        <v>1.8086433719541399</v>
       </c>
       <c r="F124">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>1.1913566280458601</v>
       </c>
       <c r="G124">
         <f t="shared" si="3"/>
-        <v>1.7447377497352132</v>
+        <v>1.4193306151888019</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125">
-        <v>-40</v>
+        <v>-43</v>
       </c>
       <c r="D125" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E125" s="3">
-        <v>1.9471036348828401</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F125">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G125">
         <f t="shared" si="3"/>
-        <v>1.1085907556769277</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126">
-        <v>-48</v>
+        <v>-39</v>
       </c>
       <c r="D126" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E126" s="3">
-        <v>1.67911478555659</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G126">
         <f t="shared" si="3"/>
-        <v>1.7447377497352132</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="D127" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E127" s="3">
-        <v>1.80815112818115</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F127">
         <f t="shared" si="4"/>
-        <v>1.19184887181885</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G127">
         <f t="shared" si="3"/>
-        <v>1.4205037332558657</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128">
-        <v>-47</v>
+        <v>-43</v>
       </c>
       <c r="D128" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E128" s="3">
-        <v>1.67911478555659</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F128">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G128">
         <f t="shared" si="3"/>
-        <v>1.7447377497352132</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D129" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E129" s="3">
-        <v>2.2578638444406698</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G129">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130">
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="D130" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E130" s="3">
-        <v>1.55928695291685</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F130">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G130">
         <f t="shared" si="3"/>
-        <v>2.0756540840356146</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="D131" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E131" s="3">
-        <v>2.2578638444406698</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F131">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G131">
         <f t="shared" si="3"/>
-        <v>0.55076607338838235</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D132" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E132" s="3">
-        <v>1.4480104769792601</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F132">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G132">
         <f t="shared" si="3"/>
-        <v>2.4086714795661437</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133">
-        <v>-41</v>
+        <v>-48</v>
       </c>
       <c r="D133" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.9822162211498302</v>
       </c>
       <c r="E133" s="3">
-        <v>1.55928695291685</v>
+        <v>1.8086433719541399</v>
       </c>
       <c r="F133">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>1.1913566280458601</v>
       </c>
       <c r="G133">
         <f t="shared" ref="G133:G196" si="5">F133^2</f>
-        <v>2.0756540840356146</v>
+        <v>1.4193306151888019</v>
       </c>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D134" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E134" s="3">
-        <v>1.55928695291685</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F134">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G134">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="D135" s="1">
-        <v>2.7246742565762001</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E135" s="3">
-        <v>1.55928695291685</v>
+        <v>3.00566916864341</v>
       </c>
       <c r="F135">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>5.6691686434100497E-3</v>
       </c>
       <c r="G135">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>3.213947310742374E-5</v>
       </c>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136">
-        <v>-47</v>
+        <v>-51</v>
       </c>
       <c r="D136" s="1">
-        <v>3.7726258937208899</v>
+        <v>4.6109872034366397</v>
       </c>
       <c r="E136" s="3">
-        <v>1.55928695291685</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F136">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G136">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137">
-        <v>-40</v>
+        <v>-43</v>
       </c>
       <c r="D137" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E137" s="3">
-        <v>1.55928695291685</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F137">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G137">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138">
-        <v>-49</v>
+        <v>-39</v>
       </c>
       <c r="D138" s="1">
-        <v>4.1918065485787697</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E138" s="3">
-        <v>1.4480104769792601</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F138">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G138">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="D139" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.1438549114340701</v>
       </c>
       <c r="E139" s="3">
-        <v>1.55928695291685</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F139">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G139">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140">
-        <v>-47</v>
+        <v>-41</v>
       </c>
       <c r="D140" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E140" s="3">
-        <v>1.55928695291685</v>
+        <v>3.00566916864341</v>
       </c>
       <c r="F140">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>5.6691686434100497E-3</v>
       </c>
       <c r="G140">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>3.213947310742374E-5</v>
       </c>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141">
-        <v>-40</v>
+        <v>-48</v>
       </c>
       <c r="D141" s="1">
-        <v>2.3054936017183199</v>
+        <v>3.9822162211498302</v>
       </c>
       <c r="E141" s="3">
-        <v>1.4480104769792601</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F141">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G141">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142">
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="D142" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E142" s="3">
-        <v>1.55928695291685</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F142">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G142">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="D143" s="1">
-        <v>2.7246742565762001</v>
+        <v>4.6109872034366397</v>
       </c>
       <c r="E143" s="3">
-        <v>2.2578638444406698</v>
+        <v>3.8746751204561298</v>
       </c>
       <c r="F143">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>0.87467512045612983</v>
       </c>
       <c r="G143">
         <f t="shared" si="5"/>
-        <v>0.55076607338838235</v>
+        <v>0.76505656634494523</v>
       </c>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="D144" s="1">
-        <v>4.1918065485787697</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E144" s="3">
-        <v>2.2578638444406698</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F144">
         <f t="shared" si="4"/>
-        <v>0.74213615555933021</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G144">
         <f t="shared" si="5"/>
-        <v>0.55076607338838235</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145">
-        <v>-40</v>
+        <v>-46</v>
       </c>
       <c r="D145" s="1">
-        <v>2.3054936017183199</v>
+        <v>3.56303556629195</v>
       </c>
       <c r="E145" s="3">
-        <v>2.0967343414417101</v>
+        <v>3.00566916864341</v>
       </c>
       <c r="F145">
         <f t="shared" si="4"/>
-        <v>0.90326565855828989</v>
+        <v>5.6691686434100497E-3</v>
       </c>
       <c r="G145">
         <f t="shared" si="5"/>
-        <v>0.81588884993074118</v>
+        <v>3.213947310742374E-5</v>
       </c>
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="D146" s="1">
-        <v>3.9822162211498302</v>
+        <v>3.7726258937208899</v>
       </c>
       <c r="E146" s="3">
-        <v>1.55928695291685</v>
+        <v>3.8746751204561298</v>
       </c>
       <c r="F146">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.87467512045612983</v>
       </c>
       <c r="G146">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.76505656634494523</v>
       </c>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D147" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E147" s="3">
-        <v>1.9471036348828401</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F147">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G147">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148">
-        <v>-47</v>
+        <v>-40</v>
       </c>
       <c r="D148" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E148" s="3">
-        <v>1.9471036348828401</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F148">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G148">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="D149" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E149" s="3">
-        <v>1.9471036348828401</v>
+        <v>2.33156248472002</v>
       </c>
       <c r="F149">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.66843751527997997</v>
       </c>
       <c r="G149">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>0.44680871183367343</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150">
-        <v>-48</v>
+        <v>-39</v>
       </c>
       <c r="D150" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E150" s="3">
-        <v>1.9471036348828401</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F150">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G150">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.3">
@@ -3300,376 +3302,376 @@
         <v>2.5150839291472602</v>
       </c>
       <c r="E151" s="3">
-        <v>1.9471036348828401</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F151">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G151">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152">
-        <v>-47</v>
+        <v>-43</v>
       </c>
       <c r="D152" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E152" s="3">
-        <v>1.4480104769792601</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F152">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G152">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D153" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E153" s="3">
-        <v>1.55928695291685</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F153">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G153">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D154" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E154" s="3">
-        <v>1.3446751013464699</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F154">
         <f t="shared" si="4"/>
-        <v>1.6553248986535301</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G154">
         <f t="shared" si="5"/>
-        <v>2.7401005201023194</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155">
-        <v>-41</v>
+        <v>-47</v>
       </c>
       <c r="D155" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.7726258937208899</v>
       </c>
       <c r="E155" s="3">
-        <v>1.55928695291685</v>
+        <v>4.5894929374867903</v>
       </c>
       <c r="F155">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>1.5894929374867903</v>
       </c>
       <c r="G155">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>2.5264877983203857</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="D156" s="1">
-        <v>3.9822162211498302</v>
+        <v>3.56303556629195</v>
       </c>
       <c r="E156" s="3">
-        <v>1.4480104769792601</v>
+        <v>1.52694547535923</v>
       </c>
       <c r="F156">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>1.47305452464077</v>
       </c>
       <c r="G156">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>2.1698896325646451</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="D157" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.1438549114340701</v>
       </c>
       <c r="E157" s="3">
-        <v>2.0967343414417101</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F157">
         <f t="shared" si="4"/>
-        <v>0.90326565855828989</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G157">
         <f t="shared" si="5"/>
-        <v>0.81588884993074118</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="D158" s="1">
-        <v>3.7726258937208899</v>
+        <v>5.4493485131524002</v>
       </c>
       <c r="E158" s="3">
-        <v>1.9471036348828401</v>
+        <v>1.52694547535923</v>
       </c>
       <c r="F158">
         <f t="shared" si="4"/>
-        <v>1.0528963651171599</v>
+        <v>1.47305452464077</v>
       </c>
       <c r="G158">
         <f t="shared" si="5"/>
-        <v>1.1085907556769277</v>
+        <v>2.1698896325646451</v>
       </c>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="D159" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E159" s="3">
-        <v>1.67911478555659</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F159">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G159">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="D160" s="1">
-        <v>3.9822162211498302</v>
+        <v>4.4013968760077002</v>
       </c>
       <c r="E160" s="3">
-        <v>1.4480104769792601</v>
+        <v>2.1423101870379999</v>
       </c>
       <c r="F160">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>0.85768981296200009</v>
       </c>
       <c r="G160">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>0.73563181525879073</v>
       </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161">
-        <v>-41</v>
+        <v>-48</v>
       </c>
       <c r="D161" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.9822162211498302</v>
       </c>
       <c r="E161" s="3">
-        <v>2.0967343414417101</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F161">
         <f t="shared" si="4"/>
-        <v>0.90326565855828989</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G161">
         <f t="shared" si="5"/>
-        <v>0.81588884993074118</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D162" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E162" s="3">
-        <v>1.4480104769792601</v>
+        <v>1.9684194472866099</v>
       </c>
       <c r="F162">
         <f t="shared" si="4"/>
-        <v>1.5519895230207399</v>
+        <v>1.0315805527133901</v>
       </c>
       <c r="G162">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>1.0641584367364634</v>
       </c>
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="D163" s="1">
-        <v>2.3054936017183199</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E163" s="3">
-        <v>1.67911478555659</v>
+        <v>6.4390756788508199</v>
       </c>
       <c r="F163">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>3.4390756788508199</v>
       </c>
       <c r="G163">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>11.827241524863227</v>
       </c>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="D164" s="1">
-        <v>4.1918065485787697</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E164" s="3">
-        <v>1.55928695291685</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F164">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G164">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D165" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E165" s="3">
-        <v>1.67911478555659</v>
+        <v>7.0079054750886103</v>
       </c>
       <c r="F165">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>4.0079054750886103</v>
       </c>
       <c r="G165">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>16.063306297245258</v>
       </c>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166">
-        <v>-48</v>
+        <v>-38</v>
       </c>
       <c r="D166" s="1">
-        <v>3.9822162211498302</v>
+        <v>1.88631294686044</v>
       </c>
       <c r="E166" s="3">
-        <v>1.67911478555659</v>
+        <v>2.33156248472002</v>
       </c>
       <c r="F166">
         <f t="shared" si="4"/>
-        <v>1.32088521444341</v>
+        <v>0.66843751527997997</v>
       </c>
       <c r="G166">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>0.44680871183367343</v>
       </c>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D167" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E167" s="3">
-        <v>1.80815112818115</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F167">
         <f t="shared" si="4"/>
-        <v>1.19184887181885</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G167">
         <f t="shared" si="5"/>
-        <v>1.4205037332558657</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="D168" s="1">
-        <v>3.9822162211498302</v>
+        <v>3.7726258937208899</v>
       </c>
       <c r="E168" s="3">
-        <v>1.55928695291685</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F168">
         <f t="shared" si="4"/>
-        <v>1.44071304708315</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G168">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169">
-        <v>-41</v>
+        <v>-37</v>
       </c>
       <c r="D169" s="1">
-        <v>2.5150839291472602</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E169" s="3">
-        <v>1.67911478555659</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169:F204" si="6">ABS(3-E169)</f>
-        <v>1.32088521444341</v>
+        <f t="shared" ref="F169:F203" si="6">ABS(3-E169)</f>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G169">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170">
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="D170" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E170" s="3">
-        <v>1.67911478555659</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F170">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G170">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.3">
@@ -3680,91 +3682,91 @@
         <v>2.5150839291472602</v>
       </c>
       <c r="E171" s="3">
-        <v>1.67911478555659</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F171">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G171">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="D172" s="1">
-        <v>4.1918065485787697</v>
+        <v>3.9822162211498302</v>
       </c>
       <c r="E172" s="3">
-        <v>1.55928695291685</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F172">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G172">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="D173" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E173" s="3">
-        <v>1.67911478555659</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F173">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G173">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174">
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="D174" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E174" s="3">
-        <v>1.3446751013464699</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F174">
         <f t="shared" si="6"/>
-        <v>1.6553248986535301</v>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G174">
         <f t="shared" si="5"/>
-        <v>2.7401005201023194</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D175" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E175" s="3">
-        <v>1.67911478555659</v>
+        <v>3.00566916864341</v>
       </c>
       <c r="F175">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>5.6691686434100497E-3</v>
       </c>
       <c r="G175">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>3.213947310742374E-5</v>
       </c>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.3">
@@ -3775,186 +3777,186 @@
         <v>2.5150839291472602</v>
       </c>
       <c r="E176" s="3">
-        <v>1.4480104769792601</v>
+        <v>5.9164176436674696</v>
       </c>
       <c r="F176">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>2.9164176436674696</v>
       </c>
       <c r="G176">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>8.5054918722949164</v>
       </c>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177">
-        <v>-41</v>
+        <v>-46</v>
       </c>
       <c r="D177" s="1">
-        <v>2.5150839291472602</v>
+        <v>3.56303556629195</v>
       </c>
       <c r="E177" s="3">
-        <v>1.3446751013464699</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F177">
         <f t="shared" si="6"/>
-        <v>1.6553248986535301</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G177">
         <f t="shared" si="5"/>
-        <v>2.7401005201023194</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178">
-        <v>-47</v>
+        <v>-39</v>
       </c>
       <c r="D178" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E178" s="3">
-        <v>1.4480104769792601</v>
+        <v>3.8746751204561298</v>
       </c>
       <c r="F178">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>0.87467512045612983</v>
       </c>
       <c r="G178">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>0.76505656634494523</v>
       </c>
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179">
-        <v>-40</v>
+        <v>-45</v>
       </c>
       <c r="D179" s="1">
-        <v>2.3054936017183199</v>
+        <v>3.35344523886301</v>
       </c>
       <c r="E179" s="3">
-        <v>1.55928695291685</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F179">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G179">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="D180" s="1">
-        <v>3.9822162211498302</v>
+        <v>3.56303556629195</v>
       </c>
       <c r="E180" s="3">
-        <v>1.4480104769792601</v>
+        <v>1.9684194472866099</v>
       </c>
       <c r="F180">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>1.0315805527133901</v>
       </c>
       <c r="G180">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>1.0641584367364634</v>
       </c>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181">
-        <v>-41</v>
+        <v>-38</v>
       </c>
       <c r="D181" s="1">
-        <v>2.5150839291472602</v>
+        <v>1.88631294686044</v>
       </c>
       <c r="E181" s="3">
-        <v>1.55928695291685</v>
+        <v>3.56016878656057</v>
       </c>
       <c r="F181">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>0.56016878656057001</v>
       </c>
       <c r="G181">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.31378906943674145</v>
       </c>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182">
-        <v>-48</v>
+        <v>-42</v>
       </c>
       <c r="D182" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E182" s="3">
-        <v>1.4480104769792601</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F182">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G182">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D183" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E183" s="3">
-        <v>1.67911478555659</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F183">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G183">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184">
-        <v>-48</v>
+        <v>-40</v>
       </c>
       <c r="D184" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E184" s="3">
-        <v>1.3446751013464699</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F184">
         <f t="shared" si="6"/>
-        <v>1.6553248986535301</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G184">
         <f t="shared" si="5"/>
-        <v>2.7401005201023194</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="D185" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.3054936017183199</v>
       </c>
       <c r="E185" s="3">
-        <v>1.67911478555659</v>
+        <v>1.9684194472866099</v>
       </c>
       <c r="F185">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>1.0315805527133901</v>
       </c>
       <c r="G185">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>1.0641584367364634</v>
       </c>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.3">
@@ -3965,91 +3967,91 @@
         <v>2.5150839291472602</v>
       </c>
       <c r="E186" s="3">
-        <v>1.4480104769792601</v>
+        <v>3.2711908469136599</v>
       </c>
       <c r="F186">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>0.27119084691365991</v>
       </c>
       <c r="G186">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>7.3544475449748126E-2</v>
       </c>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C187">
-        <v>-41</v>
+        <v>-37</v>
       </c>
       <c r="D187" s="1">
-        <v>2.5150839291472602</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E187" s="3">
-        <v>1.55928695291685</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F187">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G187">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C188">
-        <v>-48</v>
+        <v>-44</v>
       </c>
       <c r="D188" s="1">
-        <v>3.9822162211498302</v>
+        <v>3.1438549114340701</v>
       </c>
       <c r="E188" s="3">
-        <v>1.3446751013464699</v>
+        <v>4.99493006273135</v>
       </c>
       <c r="F188">
         <f t="shared" si="6"/>
-        <v>1.6553248986535301</v>
+        <v>1.99493006273135</v>
       </c>
       <c r="G188">
         <f t="shared" si="5"/>
-        <v>2.7401005201023194</v>
+        <v>3.979745955189308</v>
       </c>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C189">
-        <v>-41</v>
+        <v>-37</v>
       </c>
       <c r="D189" s="1">
-        <v>2.5150839291472602</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E189" s="3">
-        <v>1.55928695291685</v>
+        <v>2.33156248472002</v>
       </c>
       <c r="F189">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>0.66843751527997997</v>
       </c>
       <c r="G189">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>0.44680871183367343</v>
       </c>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C190">
-        <v>-48</v>
+        <v>-37</v>
       </c>
       <c r="D190" s="1">
-        <v>3.9822162211498302</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E190" s="3">
-        <v>1.55928695291685</v>
+        <v>4.99493006273135</v>
       </c>
       <c r="F190">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>1.99493006273135</v>
       </c>
       <c r="G190">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>3.979745955189308</v>
       </c>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.3">
@@ -4060,186 +4062,186 @@
         <v>2.3054936017183199</v>
       </c>
       <c r="E191" s="3">
-        <v>1.55928695291685</v>
+        <v>5.4361836201538303</v>
       </c>
       <c r="F191">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>2.4361836201538303</v>
       </c>
       <c r="G191">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>5.9349906311058218</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C192">
-        <v>-47</v>
+        <v>-42</v>
       </c>
       <c r="D192" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.7246742565762001</v>
       </c>
       <c r="E192" s="3">
-        <v>1.55928695291685</v>
+        <v>4.5894929374867903</v>
       </c>
       <c r="F192">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>1.5894929374867903</v>
       </c>
       <c r="G192">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>2.5264877983203857</v>
       </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193">
-        <v>-40</v>
+        <v>-38</v>
       </c>
       <c r="D193" s="1">
-        <v>2.3054936017183199</v>
+        <v>1.88631294686044</v>
       </c>
       <c r="E193" s="3">
-        <v>1.67911478555659</v>
+        <v>5.9164176436674696</v>
       </c>
       <c r="F193">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>2.9164176436674696</v>
       </c>
       <c r="G193">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>8.5054918722949164</v>
       </c>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D194" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.5150839291472602</v>
       </c>
       <c r="E194" s="3">
-        <v>1.67911478555659</v>
+        <v>4.5894929374867903</v>
       </c>
       <c r="F194">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>1.5894929374867903</v>
       </c>
       <c r="G194">
         <f t="shared" si="5"/>
-        <v>1.7447377497352132</v>
+        <v>2.5264877983203857</v>
       </c>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195">
-        <v>-40</v>
+        <v>-38</v>
       </c>
       <c r="D195" s="1">
-        <v>2.3054936017183199</v>
+        <v>1.88631294686044</v>
       </c>
       <c r="E195" s="3">
-        <v>1.55928695291685</v>
+        <v>5.9164176436674696</v>
       </c>
       <c r="F195">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>2.9164176436674696</v>
       </c>
       <c r="G195">
         <f t="shared" si="5"/>
-        <v>2.0756540840356146</v>
+        <v>8.5054918722949164</v>
       </c>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196">
-        <v>-47</v>
+        <v>-37</v>
       </c>
       <c r="D196" s="1">
-        <v>3.7726258937208899</v>
+        <v>1.6767226194314999</v>
       </c>
       <c r="E196" s="3">
-        <v>1.4480104769792601</v>
+        <v>4.5894929374867903</v>
       </c>
       <c r="F196">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>1.5894929374867903</v>
       </c>
       <c r="G196">
         <f t="shared" si="5"/>
-        <v>2.4086714795661437</v>
+        <v>2.5264877983203857</v>
       </c>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D197" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E197" s="3">
-        <v>1.67911478555659</v>
+        <v>4.2169650342858196</v>
       </c>
       <c r="F197">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>1.2169650342858196</v>
       </c>
       <c r="G197">
         <f t="shared" ref="G197:G260" si="7">F197^2</f>
-        <v>1.7447377497352132</v>
+        <v>1.4810038946742861</v>
       </c>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198">
-        <v>-47</v>
+        <v>-43</v>
       </c>
       <c r="D198" s="1">
-        <v>3.7726258937208899</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E198" s="3">
-        <v>1.67911478555659</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F198">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G198">
         <f t="shared" si="7"/>
-        <v>1.7447377497352132</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D199" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.9342645840051298</v>
       </c>
       <c r="E199" s="3">
-        <v>1.80815112818115</v>
+        <v>2.33156248472002</v>
       </c>
       <c r="F199">
         <f t="shared" si="6"/>
-        <v>1.19184887181885</v>
+        <v>0.66843751527997997</v>
       </c>
       <c r="G199">
         <f t="shared" si="7"/>
-        <v>1.4205037332558657</v>
+        <v>0.44680871183367343</v>
       </c>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200">
-        <v>-48</v>
+        <v>-35</v>
       </c>
       <c r="D200" s="1">
-        <v>3.9822162211498302</v>
+        <v>1.2575419645736301</v>
       </c>
       <c r="E200" s="3">
-        <v>1.4480104769792601</v>
+        <v>2.76169981334384</v>
       </c>
       <c r="F200">
         <f t="shared" si="6"/>
-        <v>1.5519895230207399</v>
+        <v>0.23830018665616004</v>
       </c>
       <c r="G200">
         <f t="shared" si="7"/>
-        <v>2.4086714795661437</v>
+        <v>5.6786978960360716E-2</v>
       </c>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.3">
@@ -4250,243 +4252,243 @@
         <v>2.3054936017183199</v>
       </c>
       <c r="E201" s="3">
-        <v>1.67911478555659</v>
+        <v>1.9684194472866099</v>
       </c>
       <c r="F201">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>1.0315805527133901</v>
       </c>
       <c r="G201">
         <f t="shared" si="7"/>
-        <v>1.7447377497352132</v>
+        <v>1.0641584367364634</v>
       </c>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C202">
-        <v>-48</v>
+        <v>-39</v>
       </c>
       <c r="D202" s="1">
-        <v>3.9822162211498302</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E202" s="3">
-        <v>1.55928695291685</v>
+        <v>1.9684194472866099</v>
       </c>
       <c r="F202">
         <f t="shared" si="6"/>
-        <v>1.44071304708315</v>
+        <v>1.0315805527133901</v>
       </c>
       <c r="G202">
         <f t="shared" si="7"/>
-        <v>2.0756540840356146</v>
+        <v>1.0641584367364634</v>
       </c>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C203">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D203" s="1">
-        <v>2.5150839291472602</v>
+        <v>2.0959032742893799</v>
       </c>
       <c r="E203" s="3">
-        <v>1.67911478555659</v>
+        <v>2.5375333847756201</v>
       </c>
       <c r="F203">
         <f t="shared" si="6"/>
-        <v>1.32088521444341</v>
+        <v>0.46246661522437993</v>
       </c>
       <c r="G203">
         <f t="shared" si="7"/>
-        <v>1.7447377497352132</v>
+        <v>0.21387537019709468</v>
       </c>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C204">
-        <v>-39</v>
+        <v>-34</v>
       </c>
       <c r="D204" s="1">
-        <v>1.66096404744368</v>
+        <v>0.83048202372183999</v>
       </c>
       <c r="E204" s="3">
-        <v>4.1636002558254503</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F204">
         <f>ABS(4-E204)</f>
-        <v>0.16360025582545035</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G204">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C205">
-        <v>-48</v>
+        <v>-42</v>
       </c>
       <c r="D205" s="1">
-        <v>3.1558316901429899</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E205" s="3">
-        <v>3.3960451173586401</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F205">
         <f t="shared" ref="F205:F268" si="8">ABS(4-E205)</f>
-        <v>0.60395488264135988</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G205">
         <f t="shared" si="7"/>
-        <v>0.3647615002663388</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C206">
-        <v>-41</v>
+        <v>-48</v>
       </c>
       <c r="D206" s="1">
-        <v>1.9931568569324101</v>
+        <v>3.1558316901429899</v>
       </c>
       <c r="E206" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F206">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G206">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C207">
-        <v>-50</v>
+        <v>-41</v>
       </c>
       <c r="D207" s="1">
-        <v>3.48802449963173</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E207" s="3">
-        <v>7.6728331125920999</v>
+        <v>7.1298528827535401</v>
       </c>
       <c r="F207">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>3.1298528827535401</v>
       </c>
       <c r="G207">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>9.795979067680646</v>
       </c>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C208">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D208" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E208" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.7318370960560996</v>
       </c>
       <c r="F208">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>1.7318370960560996</v>
       </c>
       <c r="G208">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>2.9992597272760237</v>
       </c>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C209">
-        <v>-47</v>
+        <v>-42</v>
       </c>
       <c r="D209" s="1">
-        <v>2.9897352853986199</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E209" s="3">
-        <v>5.6521332176882098</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F209">
         <f t="shared" si="8"/>
-        <v>1.6521332176882098</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G209">
         <f t="shared" si="7"/>
-        <v>2.7295441689887974</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="210" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C210">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="D210" s="1">
-        <v>2.49144607116552</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E210" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F210">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G210">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="211" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C211">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="D211" s="1">
-        <v>1.9931568569324101</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E211" s="3">
-        <v>7.6728331125920999</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F211">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G211">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="212" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C212">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="D212" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E212" s="3">
-        <v>5.1046339171703696</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F212">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G212">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="213" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C213">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="D213" s="1">
-        <v>3.1558316901429899</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E213" s="3">
-        <v>7.6728331125920999</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F213">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G213">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="214" spans="3:7" x14ac:dyDescent="0.3">
@@ -4497,167 +4499,167 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E214" s="3">
-        <v>4.1636002558254503</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F214">
         <f t="shared" si="8"/>
-        <v>0.16360025582545035</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G214">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="215" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C215">
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="D215" s="1">
-        <v>2.8236388806542498</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E215" s="3">
-        <v>6.9295967803365697</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F215">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G215">
         <f t="shared" si="7"/>
-        <v>8.5825372953583958</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="216" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C216">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D216" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E216" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F216">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G216">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="217" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C217">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="D217" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E217" s="3">
-        <v>5.1046339171703696</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F217">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G217">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="218" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C218">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="D218" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.6575424759098798</v>
       </c>
       <c r="E218" s="3">
-        <v>3.76028912710568</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F218">
         <f t="shared" si="8"/>
-        <v>0.23971087289432003</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G218">
         <f t="shared" si="7"/>
-        <v>5.7461302583756854E-2</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="219" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C219">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="D219" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E219" s="3">
-        <v>5.1046339171703696</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F219">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G219">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="220" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C220">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="D220" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E220" s="3">
-        <v>4.1636002558254503</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F220">
         <f t="shared" si="8"/>
-        <v>0.16360025582545035</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G220">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="221" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C221">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="D221" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E221" s="3">
-        <v>4.6101686610606603</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F221">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G221">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="222" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C222">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D222" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E222" s="3">
-        <v>3.76028912710568</v>
+        <v>2.9780614119352902</v>
       </c>
       <c r="F222">
         <f t="shared" si="8"/>
-        <v>0.23971087289432003</v>
+        <v>1.0219385880647098</v>
       </c>
       <c r="G222">
         <f t="shared" si="7"/>
-        <v>5.7461302583756854E-2</v>
+        <v>1.0443584777756927</v>
       </c>
     </row>
     <row r="223" spans="3:7" x14ac:dyDescent="0.3">
@@ -4668,186 +4670,186 @@
         <v>2.49144607116552</v>
       </c>
       <c r="E223" s="3">
-        <v>5.6521332176882098</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F223">
         <f t="shared" si="8"/>
-        <v>1.6521332176882098</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G223">
         <f t="shared" si="7"/>
-        <v>2.7295441689887974</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="224" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C224">
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="D224" s="1">
-        <v>1.9931568569324101</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E224" s="3">
-        <v>3.3960451173586401</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F224">
         <f t="shared" si="8"/>
-        <v>0.60395488264135988</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G224">
         <f t="shared" si="7"/>
-        <v>0.3647615002663388</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="225" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C225">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="D225" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.9897352853986199</v>
       </c>
       <c r="E225" s="3">
-        <v>4.6101686610606603</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F225">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G225">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="226" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C226">
-        <v>-42</v>
+        <v>-36</v>
       </c>
       <c r="D226" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.1626748332105701</v>
       </c>
       <c r="E226" s="3">
-        <v>5.1046339171703696</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F226">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G226">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="227" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C227">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D227" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E227" s="3">
-        <v>6.2583547476413903</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F227">
         <f t="shared" si="8"/>
-        <v>2.2583547476413903</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G227">
         <f t="shared" si="7"/>
-        <v>5.1001661661944082</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C228">
-        <v>-42</v>
+        <v>-38</v>
       </c>
       <c r="D228" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.4948676426993099</v>
       </c>
       <c r="E228" s="3">
-        <v>4.6101686610606603</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F228">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G228">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C229">
-        <v>-43</v>
+        <v>-38</v>
       </c>
       <c r="D229" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.4948676426993099</v>
       </c>
       <c r="E229" s="3">
-        <v>5.1046339171703696</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F229">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G229">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="230" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C230">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D230" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E230" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F230">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G230">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C231">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D231" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E231" s="3">
-        <v>5.1046339171703696</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F231">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G231">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C232">
-        <v>-43</v>
+        <v>-38</v>
       </c>
       <c r="D232" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.4948676426993099</v>
       </c>
       <c r="E232" s="3">
-        <v>3.76028912710568</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F232">
         <f t="shared" si="8"/>
-        <v>0.23971087289432003</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G232">
         <f t="shared" si="7"/>
-        <v>5.7461302583756854E-2</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="233" spans="3:7" x14ac:dyDescent="0.3">
@@ -4858,91 +4860,91 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E233" s="3">
-        <v>5.6521332176882098</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F233">
         <f t="shared" si="8"/>
-        <v>1.6521332176882098</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G233">
         <f t="shared" si="7"/>
-        <v>2.7295441689887974</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="234" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C234">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D234" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E234" s="3">
-        <v>4.1636002558254503</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F234">
         <f t="shared" si="8"/>
-        <v>0.16360025582545035</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G234">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="235" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C235">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D235" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E235" s="3">
-        <v>6.9295967803365697</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F235">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G235">
         <f t="shared" si="7"/>
-        <v>8.5825372953583958</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="236" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C236">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D236" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E236" s="3">
-        <v>3.3960451173586401</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F236">
         <f t="shared" si="8"/>
-        <v>0.60395488264135988</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G236">
         <f t="shared" si="7"/>
-        <v>0.3647615002663388</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="237" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C237">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D237" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E237" s="3">
-        <v>8.4957855182492192</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F237">
         <f t="shared" si="8"/>
-        <v>4.4957855182492192</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G237">
         <f t="shared" si="7"/>
-        <v>20.212087426099401</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="238" spans="3:7" x14ac:dyDescent="0.3">
@@ -4953,72 +4955,72 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E238" s="3">
-        <v>3.76028912710568</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F238">
         <f t="shared" si="8"/>
-        <v>0.23971087289432003</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G238">
         <f t="shared" si="7"/>
-        <v>5.7461302583756854E-2</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="239" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C239">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D239" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E239" s="3">
-        <v>4.1636002558254503</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F239">
         <f t="shared" si="8"/>
-        <v>0.16360025582545035</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G239">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="240" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C240">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="D240" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.3287712379549399</v>
       </c>
       <c r="E240" s="3">
-        <v>4.1636002558254503</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F240">
         <f t="shared" si="8"/>
-        <v>0.16360025582545035</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G240">
         <f t="shared" si="7"/>
-        <v>2.6765043706152802E-2</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="241" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C241">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D241" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E241" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F241">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G241">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="242" spans="3:7" x14ac:dyDescent="0.3">
@@ -5029,53 +5031,53 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E242" s="3">
-        <v>3.3960451173586401</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F242">
         <f t="shared" si="8"/>
-        <v>0.60395488264135988</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G242">
         <f t="shared" si="7"/>
-        <v>0.3647615002663388</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="243" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C243">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="D243" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E243" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F243">
         <f t="shared" si="8"/>
-        <v>0.61016866106066026</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G243">
         <f t="shared" si="7"/>
-        <v>0.37230579494055888</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="244" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C244">
-        <v>-42</v>
+        <v>-46</v>
       </c>
       <c r="D244" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.8236388806542498</v>
       </c>
       <c r="E244" s="3">
-        <v>5.1046339171703696</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F244">
         <f t="shared" si="8"/>
-        <v>1.1046339171703696</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G244">
         <f t="shared" si="7"/>
-        <v>1.220216090963155</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="245" spans="3:7" x14ac:dyDescent="0.3">
@@ -5086,72 +5088,72 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E245" s="3">
-        <v>6.9295967803365697</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F245">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G245">
         <f t="shared" si="7"/>
-        <v>8.5825372953583958</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="246" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C246">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="D246" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E246" s="3">
-        <v>9.4070039727098003</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F246">
         <f t="shared" si="8"/>
-        <v>5.4070039727098003</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G246">
         <f t="shared" si="7"/>
-        <v>29.235691960899562</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="247" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C247">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="D247" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E247" s="3">
-        <v>7.6728331125920999</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F247">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G247">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="248" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C248">
-        <v>-25</v>
+        <v>-44</v>
       </c>
       <c r="D248" s="1">
-        <v>-0.66438561897747195</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E248" s="3">
-        <v>9.4070039727098003</v>
+        <v>2.9780614119352902</v>
       </c>
       <c r="F248">
         <f t="shared" si="8"/>
-        <v>5.4070039727098003</v>
+        <v>1.0219385880647098</v>
       </c>
       <c r="G248">
         <f t="shared" si="7"/>
-        <v>29.235691960899562</v>
+        <v>1.0443584777756927</v>
       </c>
     </row>
     <row r="249" spans="3:7" x14ac:dyDescent="0.3">
@@ -5162,72 +5164,72 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E249" s="3">
-        <v>7.6728331125920999</v>
+        <v>5.7318370960560996</v>
       </c>
       <c r="F249">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>1.7318370960560996</v>
       </c>
       <c r="G249">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>2.9992597272760237</v>
       </c>
     </row>
     <row r="250" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C250">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D250" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E250" s="3">
-        <v>9.4070039727098003</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F250">
         <f t="shared" si="8"/>
-        <v>5.4070039727098003</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G250">
         <f t="shared" si="7"/>
-        <v>29.235691960899562</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="251" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C251">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="D251" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E251" s="3">
-        <v>6.2583547476413903</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F251">
         <f t="shared" si="8"/>
-        <v>2.2583547476413903</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G251">
         <f t="shared" si="7"/>
-        <v>5.1001661661944082</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="252" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C252">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="D252" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E252" s="3">
-        <v>7.6728331125920999</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F252">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G252">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="253" spans="3:7" x14ac:dyDescent="0.3">
@@ -5238,34 +5240,34 @@
         <v>2.49144607116552</v>
       </c>
       <c r="E253" s="3">
-        <v>6.9295967803365697</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F253">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G253">
         <f t="shared" si="7"/>
-        <v>8.5825372953583958</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="254" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C254">
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="D254" s="1">
-        <v>1.9931568569324101</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E254" s="3">
-        <v>7.6728331125920999</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F254">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G254">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="255" spans="3:7" x14ac:dyDescent="0.3">
@@ -5276,34 +5278,34 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E255" s="3">
-        <v>6.2583547476413903</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F255">
         <f t="shared" si="8"/>
-        <v>2.2583547476413903</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G255">
         <f t="shared" si="7"/>
-        <v>5.1001661661944082</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="256" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C256">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D256" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E256" s="3">
-        <v>6.9295967803365697</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F256">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G256">
         <f t="shared" si="7"/>
-        <v>8.5825372953583958</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.3">
@@ -5314,15 +5316,15 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E257" s="3">
-        <v>7.6728331125920999</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F257">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G257">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.3">
@@ -5333,72 +5335,72 @@
         <v>1.9931568569324101</v>
       </c>
       <c r="E258" s="3">
-        <v>8.4957855182492192</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F258">
         <f t="shared" si="8"/>
-        <v>4.4957855182492192</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G258">
         <f t="shared" si="7"/>
-        <v>20.212087426099401</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C259">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D259" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E259" s="3">
-        <v>7.6728331125920999</v>
+        <v>5.7318370960560996</v>
       </c>
       <c r="F259">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>1.7318370960560996</v>
       </c>
       <c r="G259">
         <f t="shared" si="7"/>
-        <v>13.489703072952972</v>
+        <v>2.9992597272760237</v>
       </c>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C260">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="D260" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E260" s="3">
-        <v>10.415955481985099</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F260">
         <f t="shared" si="8"/>
-        <v>6.4159554819850992</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G260">
         <f t="shared" si="7"/>
-        <v>41.164484746814644</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C261">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="D261" s="1">
-        <v>2.49144607116552</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E261" s="3">
-        <v>8.4957855182492192</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F261">
         <f t="shared" si="8"/>
-        <v>4.4957855182492192</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G261">
         <f t="shared" ref="G261:G303" si="9">F261^2</f>
-        <v>20.212087426099401</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.3">
@@ -5409,72 +5411,72 @@
         <v>1.9931568569324101</v>
       </c>
       <c r="E262" s="3">
-        <v>7.6728331125920999</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F262">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G262">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="263" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C263">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D263" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E263" s="3">
-        <v>6.9295967803365697</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F263">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G263">
         <f t="shared" si="9"/>
-        <v>8.5825372953583958</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="264" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C264">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="D264" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E264" s="3">
-        <v>7.6728331125920999</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F264">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G264">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="265" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C265">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="D265" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E265" s="3">
-        <v>8.4957855182492192</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F265">
         <f t="shared" si="8"/>
-        <v>4.4957855182492192</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G265">
         <f t="shared" si="9"/>
-        <v>20.212087426099401</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.3">
@@ -5485,91 +5487,91 @@
         <v>1.9931568569324101</v>
       </c>
       <c r="E266" s="3">
-        <v>6.9295967803365697</v>
+        <v>7.9519553647245598</v>
       </c>
       <c r="F266">
         <f t="shared" si="8"/>
-        <v>2.9295967803365697</v>
+        <v>3.9519553647245598</v>
       </c>
       <c r="G266">
         <f t="shared" si="9"/>
-        <v>8.5825372953583958</v>
+        <v>15.617951204775228</v>
       </c>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C267">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="D267" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E267" s="3">
-        <v>7.6728331125920999</v>
+        <v>2.6701784365007399</v>
       </c>
       <c r="F267">
         <f t="shared" si="8"/>
-        <v>3.6728331125920999</v>
+        <v>1.3298215634992601</v>
       </c>
       <c r="G267">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>1.7684253907476166</v>
       </c>
     </row>
     <row r="268" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C268">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D268" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E268" s="3">
-        <v>10.415955481985099</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F268">
         <f t="shared" si="8"/>
-        <v>6.4159554819850992</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G268">
         <f t="shared" si="9"/>
-        <v>41.164484746814644</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="269" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C269">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="D269" s="1">
-        <v>2.49144607116552</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E269" s="3">
-        <v>7.6728331125920999</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F269">
         <f t="shared" ref="F269:F303" si="10">ABS(4-E269)</f>
-        <v>3.6728331125920999</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G269">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="270" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C270">
-        <v>-42</v>
+        <v>-48</v>
       </c>
       <c r="D270" s="1">
-        <v>2.1592532616767799</v>
+        <v>3.1558316901429899</v>
       </c>
       <c r="E270" s="3">
-        <v>7.6728331125920999</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F270">
         <f t="shared" si="10"/>
-        <v>3.6728331125920999</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G270">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="271" spans="3:7" x14ac:dyDescent="0.3">
@@ -5580,167 +5582,167 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E271" s="3">
-        <v>6.9295967803365697</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F271">
         <f t="shared" si="10"/>
-        <v>2.9295967803365697</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G271">
         <f t="shared" si="9"/>
-        <v>8.5825372953583958</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C272">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="D272" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E272" s="3">
-        <v>4.6101686610606603</v>
+        <v>12.3040303399273</v>
       </c>
       <c r="F272">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>8.3040303399272997</v>
       </c>
       <c r="G272">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>68.956919886433099</v>
       </c>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C273">
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="D273" s="1">
-        <v>2.49144607116552</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E273" s="3">
-        <v>4.6101686610606603</v>
+        <v>2.9780614119352902</v>
       </c>
       <c r="F273">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>1.0219385880647098</v>
       </c>
       <c r="G273">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.0443584777756927</v>
       </c>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C274">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="D274" s="1">
-        <v>1.9931568569324101</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E274" s="3">
-        <v>7.6728331125920999</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F274">
         <f t="shared" si="10"/>
-        <v>3.6728331125920999</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G274">
         <f t="shared" si="9"/>
-        <v>13.489703072952972</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C275">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="D275" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E275" s="3">
-        <v>4.6101686610606603</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F275">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G275">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C276">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="D276" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.9897352853986199</v>
       </c>
       <c r="E276" s="3">
-        <v>5.6521332176882098</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F276">
         <f t="shared" si="10"/>
-        <v>1.6521332176882098</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G276">
         <f t="shared" si="9"/>
-        <v>2.7295441689887974</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C277">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="D277" s="1">
-        <v>2.49144607116552</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E277" s="3">
-        <v>3.76028912710568</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F277">
         <f t="shared" si="10"/>
-        <v>0.23971087289432003</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G277">
         <f t="shared" si="9"/>
-        <v>5.7461302583756854E-2</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C278">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="D278" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E278" s="3">
-        <v>6.2583547476413903</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F278">
         <f t="shared" si="10"/>
-        <v>2.2583547476413903</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G278">
         <f t="shared" si="9"/>
-        <v>5.1001661661944082</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C279">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="D279" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E279" s="3">
-        <v>4.1636002558254503</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F279">
         <f t="shared" si="10"/>
-        <v>0.16360025582545035</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G279">
         <f t="shared" si="9"/>
-        <v>2.6765043706152802E-2</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.3">
@@ -5751,15 +5753,15 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E280" s="3">
-        <v>5.6521332176882098</v>
+        <v>5.7318370960560996</v>
       </c>
       <c r="F280">
         <f t="shared" si="10"/>
-        <v>1.6521332176882098</v>
+        <v>1.7318370960560996</v>
       </c>
       <c r="G280">
         <f t="shared" si="9"/>
-        <v>2.7295441689887974</v>
+        <v>2.9992597272760237</v>
       </c>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.3">
@@ -5770,53 +5772,53 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E281" s="3">
-        <v>6.9295967803365697</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F281">
         <f t="shared" si="10"/>
-        <v>2.9295967803365697</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G281">
         <f t="shared" si="9"/>
-        <v>8.5825372953583958</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C282">
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="D282" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.6575424759098798</v>
       </c>
       <c r="E282" s="3">
-        <v>5.1046339171703696</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F282">
         <f t="shared" si="10"/>
-        <v>1.1046339171703696</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G282">
         <f t="shared" si="9"/>
-        <v>1.220216090963155</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C283">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="D283" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E283" s="3">
-        <v>4.6101686610606603</v>
+        <v>2.9780614119352902</v>
       </c>
       <c r="F283">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>1.0219385880647098</v>
       </c>
       <c r="G283">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.0443584777756927</v>
       </c>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.3">
@@ -5827,72 +5829,72 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E284" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F284">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G284">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C285">
-        <v>-44</v>
+        <v>-40</v>
       </c>
       <c r="D285" s="1">
-        <v>2.49144607116552</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E285" s="3">
-        <v>5.6521332176882098</v>
+        <v>0.57947296014190797</v>
       </c>
       <c r="F285">
         <f t="shared" si="10"/>
-        <v>1.6521332176882098</v>
+        <v>3.4205270398580918</v>
       </c>
       <c r="G285">
         <f t="shared" si="9"/>
-        <v>2.7295441689887974</v>
+        <v>11.700005230400359</v>
       </c>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C286">
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="D286" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E286" s="3">
-        <v>6.9295967803365697</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F286">
         <f t="shared" si="10"/>
-        <v>2.9295967803365697</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G286">
         <f t="shared" si="9"/>
-        <v>8.5825372953583958</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C287">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="D287" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.49144607116552</v>
       </c>
       <c r="E287" s="3">
-        <v>8.4957855182492192</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F287">
         <f t="shared" si="10"/>
-        <v>4.4957855182492192</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G287">
         <f t="shared" si="9"/>
-        <v>20.212087426099401</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.3">
@@ -5903,53 +5905,53 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E288" s="3">
-        <v>4.1636002558254503</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F288">
         <f t="shared" si="10"/>
-        <v>0.16360025582545035</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G288">
         <f t="shared" si="9"/>
-        <v>2.6765043706152802E-2</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C289">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="D289" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.1592532616767799</v>
       </c>
       <c r="E289" s="3">
-        <v>4.1636002558254503</v>
+        <v>6.3927423882704097</v>
       </c>
       <c r="F289">
         <f t="shared" si="10"/>
-        <v>0.16360025582545035</v>
+        <v>2.3927423882704097</v>
       </c>
       <c r="G289">
         <f t="shared" si="9"/>
-        <v>2.6765043706152802E-2</v>
+        <v>5.7252161366259839</v>
       </c>
     </row>
     <row r="290" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C290">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="D290" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.9931568569324101</v>
       </c>
       <c r="E290" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F290">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G290">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.3">
@@ -5960,91 +5962,91 @@
         <v>2.49144607116552</v>
       </c>
       <c r="E291" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F291">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G291">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C292">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="D292" s="1">
-        <v>2.1592532616767799</v>
+        <v>2.6575424759098798</v>
       </c>
       <c r="E292" s="3">
-        <v>5.6521332176882098</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F292">
         <f t="shared" si="10"/>
-        <v>1.6521332176882098</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G292">
         <f t="shared" si="9"/>
-        <v>2.7295441689887974</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="293" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C293">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="D293" s="1">
-        <v>2.49144607116552</v>
+        <v>2.3253496664211499</v>
       </c>
       <c r="E293" s="3">
-        <v>4.6101686610606603</v>
+        <v>5.7318370960560996</v>
       </c>
       <c r="F293">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>1.7318370960560996</v>
       </c>
       <c r="G293">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>2.9992597272760237</v>
       </c>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C294">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="D294" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E294" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.6079431141132696</v>
       </c>
       <c r="F294">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>0.60794311411326962</v>
       </c>
       <c r="G294">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>0.36959482999773996</v>
       </c>
     </row>
     <row r="295" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C295">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="D295" s="1">
-        <v>2.3253496664211499</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E295" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F295">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G295">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.3">
@@ -6055,34 +6057,34 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E296" s="3">
-        <v>4.6101686610606603</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F296">
         <f t="shared" si="10"/>
-        <v>0.61016866106066026</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G296">
         <f t="shared" si="9"/>
-        <v>0.37230579494055888</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="297" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C297">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="D297" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.66096404744368</v>
       </c>
       <c r="E297" s="3">
-        <v>4.1636002558254503</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F297">
         <f t="shared" si="10"/>
-        <v>0.16360025582545035</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G297">
         <f t="shared" si="9"/>
-        <v>2.6765043706152802E-2</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="298" spans="3:7" x14ac:dyDescent="0.3">
@@ -6093,53 +6095,53 @@
         <v>2.1592532616767799</v>
       </c>
       <c r="E298" s="3">
-        <v>5.1046339171703696</v>
+        <v>4.13155695534551</v>
       </c>
       <c r="F298">
         <f t="shared" si="10"/>
-        <v>1.1046339171703696</v>
+        <v>0.13155695534551004</v>
       </c>
       <c r="G298">
         <f t="shared" si="9"/>
-        <v>1.220216090963155</v>
+        <v>1.7307232499780521E-2</v>
       </c>
     </row>
     <row r="299" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C299">
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="D299" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.8236388806542498</v>
       </c>
       <c r="E299" s="3">
-        <v>3.76028912710568</v>
+        <v>2.9780614119352902</v>
       </c>
       <c r="F299">
         <f t="shared" si="10"/>
-        <v>0.23971087289432003</v>
+        <v>1.0219385880647098</v>
       </c>
       <c r="G299">
         <f t="shared" si="9"/>
-        <v>5.7461302583756854E-2</v>
+        <v>1.0443584777756927</v>
       </c>
     </row>
     <row r="300" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C300">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="D300" s="1">
-        <v>2.1592532616767799</v>
+        <v>1.82706045218804</v>
       </c>
       <c r="E300" s="3">
-        <v>5.6521332176882098</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F300">
         <f t="shared" si="10"/>
-        <v>1.6521332176882098</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G300">
         <f t="shared" si="9"/>
-        <v>2.7295441689887974</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.3">
@@ -6150,53 +6152,53 @@
         <v>2.3253496664211499</v>
       </c>
       <c r="E301" s="3">
-        <v>5.1046339171703696</v>
+        <v>3.7044213551557101</v>
       </c>
       <c r="F301">
         <f t="shared" si="10"/>
-        <v>1.1046339171703696</v>
+        <v>0.29557864484428986</v>
       </c>
       <c r="G301">
         <f t="shared" si="9"/>
-        <v>1.220216090963155</v>
+        <v>8.7366735287986844E-2</v>
       </c>
     </row>
     <row r="302" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C302">
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="D302" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.8236388806542498</v>
       </c>
       <c r="E302" s="3">
-        <v>9.4070039727098003</v>
+        <v>5.1392586311637096</v>
       </c>
       <c r="F302">
         <f t="shared" si="10"/>
-        <v>5.4070039727098003</v>
+        <v>1.1392586311637096</v>
       </c>
       <c r="G302">
         <f t="shared" si="9"/>
-        <v>29.235691960899562</v>
+        <v>1.2979102286810094</v>
       </c>
     </row>
     <row r="303" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C303">
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="D303" s="1">
-        <v>2.3253496664211499</v>
+        <v>2.8236388806542498</v>
       </c>
       <c r="E303" s="3">
-        <v>3.76028912710568</v>
+        <v>3.32144460910283</v>
       </c>
       <c r="F303">
         <f t="shared" si="10"/>
-        <v>0.23971087289432003</v>
+        <v>0.67855539089716999</v>
       </c>
       <c r="G303">
         <f t="shared" si="9"/>
-        <v>5.7461302583756854E-2</v>
+        <v>0.46043741851561115</v>
       </c>
     </row>
   </sheetData>
